--- a/excel_sheet.xlsx
+++ b/excel_sheet.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shail\OneDrive\Desktop\Pinky-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shail\OneDrive\Desktop\Datascience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8FF854-F84E-4DD3-9080-E9048F7BC47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13180E8-D7AC-452B-B625-A5C014B32819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">employee id </t>
   </si>
@@ -52,6 +63,9 @@
   </si>
   <si>
     <t>phone no</t>
+  </si>
+  <si>
+    <t>annual salary</t>
   </si>
 </sst>
 </file>
@@ -369,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -380,7 +394,7 @@
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,8 +407,11 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -407,8 +424,12 @@
       <c r="D2">
         <v>878654564</v>
       </c>
+      <c r="E2">
+        <f>C2*12</f>
+        <v>89328</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -421,8 +442,12 @@
       <c r="D3">
         <v>87698898</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="0">C3*12</f>
+        <v>65592</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -435,8 +460,12 @@
       <c r="D4">
         <v>65466546</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2598756</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -449,8 +478,12 @@
       <c r="D5">
         <v>544651564</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>65580</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -462,6 +495,10 @@
       </c>
       <c r="D6">
         <v>26656653</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>658536</v>
       </c>
     </row>
   </sheetData>
